--- a/data/input/需求对应表.xlsx
+++ b/data/input/需求对应表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\P. Python\B. 标书大模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5277C34F-58F8-4AF0-9C4D-619695044168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{795C2951-7B0E-4B89-8EA6-9CA67883EE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>序号</t>
   </si>
@@ -45,28 +45,55 @@
     <t>产品采用的分布式架构，支持X86，ARM服务器。</t>
   </si>
   <si>
+    <t>产品采用架构，兼容多服务器</t>
+  </si>
+  <si>
+    <t>完全支持。系统采用分布式架构，兼容X86和ARM服务器，能够充分利用服务器资源，确保系统的稳定性和可扩展性。</t>
+  </si>
+  <si>
     <t>2.1.1</t>
   </si>
   <si>
     <t>基础功能，工作流定义，任务实例定义</t>
   </si>
   <si>
+    <t>基础、工作流、任务实例定义</t>
+  </si>
+  <si>
+    <t>完全支持。系统具备基础功能和工作流定义的管理能力，允许用户进行任务实例的自定义和定义。系统支持通过界面进行工作流和任务实例的创建、编辑、删除和监控，支持任务的启动、挂起、恢复和终止等操作。</t>
+  </si>
+  <si>
     <t>2.1.2</t>
   </si>
   <si>
     <t>数据源支持，mysql，oracle，postgresql</t>
   </si>
   <si>
+    <t>数据源支持三大数据库：mysql、oracle、pg</t>
+  </si>
+  <si>
+    <t>完全支持。系统支持对MySQL、Oracle、PostgreSQL等常见数据库类型的数据源接入和管理。</t>
+  </si>
+  <si>
     <t>2.1.3</t>
   </si>
   <si>
     <t>产品架构</t>
   </si>
   <si>
+    <t>完全支持。系统采用分布式架构，兼容X86和ARM服务器，确保高性能和可扩展性。</t>
+  </si>
+  <si>
     <t>2.2.1</t>
   </si>
   <si>
     <t>支持centos，redhat等主流操作系统。</t>
+  </si>
+  <si>
+    <t>精简后：支持主流操作系统</t>
+  </si>
+  <si>
+    <t>完全支持。系统支持在centos、redhat等主流操作系统上的运行和使用，具备良好的兼容性和稳定性。</t>
   </si>
   <si>
     <t>2.2.2</t>
@@ -703,7 +730,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E12"/>
+      <selection activeCell="D2" sqref="D2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -743,10 +770,14 @@
       <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="17">
         <v>1.1000000000000001</v>
@@ -758,15 +789,19 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="50.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -775,15 +810,19 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="70.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -791,18 +830,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.4">
@@ -811,20 +854,24 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C9" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -858,28 +905,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="86" customHeight="1" x14ac:dyDescent="0.4">
@@ -887,28 +934,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -917,25 +964,25 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G3" s="4">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -944,23 +991,23 @@
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="280.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -969,25 +1016,25 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1015,66 +1062,66 @@
   <sheetData>
     <row r="4" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
